--- a/data/scheduling_DNN/predict/0.9/result25.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result25.xlsx
@@ -570,10 +570,10 @@
         <v>0.9027421474456787</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.8811324238777161</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01007774844765663</v>
+        <v>0.0004669801564887166</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9814579486846924</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.8894197344779968</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03274662792682648</v>
+        <v>0.008471032604575157</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8846569061279297</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.4004845917224884</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2557845711708069</v>
+        <v>0.2344228327274323</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8833370208740234</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.8873159885406494</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1641937047243118</v>
+        <v>1.583218363521155e-05</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.9357039928436279</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.520144522190094</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2684940993785858</v>
+        <v>0.17268967628479</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8899688720703125</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.8663797974586487</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1818882077932358</v>
+        <v>0.0005564444581978023</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8830749988555908</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.4004647135734558</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2833694219589233</v>
+        <v>0.232912689447403</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.9195389747619629</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.8866943717002869</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2916715443134308</v>
+        <v>0.001078767934814095</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.9149329662322998</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.4973061680793762</v>
       </c>
       <c r="W10" t="n">
-        <v>0.3225120306015015</v>
+        <v>0.1744121462106705</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8703880310058594</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.8729545474052429</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1441447138786316</v>
+        <v>6.587006282643415e-06</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8767008781433105</v>
       </c>
       <c r="V12" t="n">
-        <v>0.655465304851532</v>
+        <v>0.5265331864356995</v>
       </c>
       <c r="W12" t="n">
-        <v>0.04894517734646797</v>
+        <v>0.1226174086332321</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8683860301971436</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.4000684320926666</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1324427425861359</v>
+        <v>0.2193213701248169</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.9082188606262207</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.3990647792816162</v>
       </c>
       <c r="W14" t="n">
-        <v>0.3099169433116913</v>
+        <v>0.2592378854751587</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.8986029624938965</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.8896898627281189</v>
       </c>
       <c r="W15" t="n">
-        <v>0.166637510061264</v>
+        <v>7.944335084175691e-05</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8633649349212646</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.8658682703971863</v>
       </c>
       <c r="W16" t="n">
-        <v>0.2413436472415924</v>
+        <v>6.266688615141902e-06</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8761470317840576</v>
       </c>
       <c r="V17" t="n">
-        <v>0.490329772233963</v>
+        <v>0.8735302090644836</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1488549560308456</v>
+        <v>6.847761142125819e-06</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.9122509956359863</v>
       </c>
       <c r="V18" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.5244672894477844</v>
       </c>
       <c r="W18" t="n">
-        <v>0.006110129877924919</v>
+        <v>0.1503762006759644</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8539340496063232</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.8677504658699036</v>
       </c>
       <c r="W19" t="n">
-        <v>0.02595039643347263</v>
+        <v>0.0001908933627419174</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8919620513916016</v>
       </c>
       <c r="V20" t="n">
-        <v>0.800457239151001</v>
+        <v>0.4010446071624756</v>
       </c>
       <c r="W20" t="n">
-        <v>0.008373131044209003</v>
+        <v>0.2409999370574951</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8625869750976562</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.3999401926994324</v>
       </c>
       <c r="W21" t="n">
-        <v>0.07843900471925735</v>
+        <v>0.2140420526266098</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5806221961975098</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.5177491903305054</v>
       </c>
       <c r="W22" t="n">
-        <v>0.005704257637262344</v>
+        <v>0.003953014966100454</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5197858810424805</v>
       </c>
       <c r="V23" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.8666210770606995</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0178472064435482</v>
+        <v>0.1202946528792381</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5289130210876465</v>
       </c>
       <c r="V24" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.4004416167736053</v>
       </c>
       <c r="W24" t="n">
-        <v>0.03135145083069801</v>
+        <v>0.01650490239262581</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5306081771850586</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.8889889717102051</v>
       </c>
       <c r="W25" t="n">
-        <v>0.001596675137989223</v>
+        <v>0.1284367889165878</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5252571105957031</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.4014035761356354</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01158117968589067</v>
+        <v>0.01533969771116972</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5686180591583252</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.8761518597602844</v>
       </c>
       <c r="W27" t="n">
-        <v>0.006229360122233629</v>
+        <v>0.09457703679800034</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5155479907989502</v>
       </c>
       <c r="V28" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.8670433759689331</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0271613635122776</v>
+        <v>0.1235490068793297</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5190689563751221</v>
       </c>
       <c r="V29" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.5250163674354553</v>
       </c>
       <c r="W29" t="n">
-        <v>0.03015013039112091</v>
+        <v>3.53716968675144e-05</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5338840484619141</v>
       </c>
       <c r="V30" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.5164830088615417</v>
       </c>
       <c r="W30" t="n">
-        <v>0.02526676096022129</v>
+        <v>0.0003027961647603661</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5129270553588867</v>
       </c>
       <c r="V31" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.4004661440849304</v>
       </c>
       <c r="W31" t="n">
-        <v>0.1079291924834251</v>
+        <v>0.01264745648950338</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5250270366668701</v>
       </c>
       <c r="V32" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.4004776179790497</v>
       </c>
       <c r="W32" t="n">
-        <v>0.2034481316804886</v>
+        <v>0.01551255770027637</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5148928165435791</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.5228685140609741</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01910424418747425</v>
+        <v>6.361174746416509e-05</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5148279666900635</v>
       </c>
       <c r="V34" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.4014287889003754</v>
       </c>
       <c r="W34" t="n">
-        <v>0.08156637847423553</v>
+        <v>0.01285937335342169</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5110929012298584</v>
       </c>
       <c r="V35" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.8810724020004272</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0257075522094965</v>
+        <v>0.1368848383426666</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5108060836791992</v>
       </c>
       <c r="V36" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.3990618586540222</v>
       </c>
       <c r="W36" t="n">
-        <v>0.08633623272180557</v>
+        <v>0.01248677168041468</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5143048763275146</v>
       </c>
       <c r="V37" t="n">
-        <v>0.838257908821106</v>
+        <v>0.8709639310836792</v>
       </c>
       <c r="W37" t="n">
-        <v>0.104945570230484</v>
+        <v>0.1272056847810745</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5657181739807129</v>
       </c>
       <c r="V38" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.3990534245967865</v>
       </c>
       <c r="W38" t="n">
-        <v>0.03752566501498222</v>
+        <v>0.02777713909745216</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5149080753326416</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.51614910364151</v>
       </c>
       <c r="W39" t="n">
-        <v>9.799768304219469e-05</v>
+        <v>1.540151288281777e-06</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5171618461608887</v>
       </c>
       <c r="V40" t="n">
-        <v>0.801636278629303</v>
+        <v>0.4014681875705719</v>
       </c>
       <c r="W40" t="n">
-        <v>0.08092570304870605</v>
+        <v>0.01338502299040556</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5240011215209961</v>
       </c>
       <c r="V41" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.4015646874904633</v>
       </c>
       <c r="W41" t="n">
-        <v>0.0004158458323217928</v>
+        <v>0.0149906799197197</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4109699726104736</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.5051458477973938</v>
       </c>
       <c r="W42" t="n">
-        <v>0.006368964444845915</v>
+        <v>0.008869095705449581</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4109878540039062</v>
       </c>
       <c r="V43" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.5224798321723938</v>
       </c>
       <c r="W43" t="n">
-        <v>0.02710539102554321</v>
+        <v>0.0124304611235857</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.4053390026092529</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.4004670083522797</v>
       </c>
       <c r="W44" t="n">
-        <v>0.007250969763845205</v>
+        <v>2.373632742092013e-05</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.387192964553833</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.8859875798225403</v>
       </c>
       <c r="W45" t="n">
-        <v>0.0009262780658900738</v>
+        <v>0.2487960755825043</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3862450122833252</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.3990498483181</v>
       </c>
       <c r="W46" t="n">
-        <v>0.01092976238578558</v>
+        <v>0.0001639638212509453</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.402562141418457</v>
       </c>
       <c r="V47" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.4010411500930786</v>
       </c>
       <c r="W47" t="n">
-        <v>0.0148837910965085</v>
+        <v>2.313414597665542e-06</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3875730037689209</v>
       </c>
       <c r="V48" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.8764934539794922</v>
       </c>
       <c r="W48" t="n">
-        <v>0.3453215956687927</v>
+        <v>0.2390432059764862</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.389808177947998</v>
       </c>
       <c r="V49" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.5172634720802307</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0003532021073624492</v>
+        <v>0.01624485291540623</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.4359250068664551</v>
       </c>
       <c r="V50" t="n">
-        <v>0.405481219291687</v>
+        <v>0.5310823321342468</v>
       </c>
       <c r="W50" t="n">
-        <v>0.0009268242283724248</v>
+        <v>0.00905491691082716</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3880410194396973</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.399073451757431</v>
       </c>
       <c r="W51" t="n">
-        <v>0.02327524311840534</v>
+        <v>0.0001217145618284121</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3882191181182861</v>
       </c>
       <c r="V52" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.8977147340774536</v>
       </c>
       <c r="W52" t="n">
-        <v>0.00537414476275444</v>
+        <v>0.2595857679843903</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3862791061401367</v>
       </c>
       <c r="V53" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.522897481918335</v>
       </c>
       <c r="W53" t="n">
-        <v>0.03846128657460213</v>
+        <v>0.01866457983851433</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3853950500488281</v>
       </c>
       <c r="V54" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.8706998825073242</v>
       </c>
       <c r="W54" t="n">
-        <v>0.005794715601950884</v>
+        <v>0.2355207800865173</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3886079788208008</v>
       </c>
       <c r="V55" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.5181141495704651</v>
       </c>
       <c r="W55" t="n">
-        <v>0.07018052041530609</v>
+        <v>0.01677184738218784</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.382084846496582</v>
       </c>
       <c r="V56" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.8725966215133667</v>
       </c>
       <c r="W56" t="n">
-        <v>0.07407715916633606</v>
+        <v>0.2406018078327179</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3863520622253418</v>
       </c>
       <c r="V57" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.8922350406646729</v>
       </c>
       <c r="W57" t="n">
-        <v>0.09778022766113281</v>
+        <v>0.2559175789356232</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3842310905456543</v>
       </c>
       <c r="V58" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.3992641270160675</v>
       </c>
       <c r="W58" t="n">
-        <v>0.1754674762487411</v>
+        <v>0.0002259921893710271</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3883399963378906</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.8735082149505615</v>
       </c>
       <c r="W59" t="n">
-        <v>0.01051071472465992</v>
+        <v>0.2353882044553757</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3877530097961426</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.8853619694709778</v>
       </c>
       <c r="W60" t="n">
-        <v>0.01377250161021948</v>
+        <v>0.2476146817207336</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3847990036010742</v>
       </c>
       <c r="V61" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.4004378020763397</v>
       </c>
       <c r="W61" t="n">
-        <v>0.1763400882482529</v>
+        <v>0.0002445720310788602</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.9515869617462158</v>
       </c>
       <c r="V62" t="n">
-        <v>0.654336154460907</v>
+        <v>0.5234743356704712</v>
       </c>
       <c r="W62" t="n">
-        <v>0.08835804462432861</v>
+        <v>0.183280423283577</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8605039119720459</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.4004702270030975</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1573151051998138</v>
+        <v>0.2116309851408005</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8655259609222412</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.4007849097251892</v>
       </c>
       <c r="W64" t="n">
-        <v>0.2006022334098816</v>
+        <v>0.2159842401742935</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8683171272277832</v>
       </c>
       <c r="V65" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.5164176225662231</v>
       </c>
       <c r="W65" t="n">
-        <v>0.2031184434890747</v>
+        <v>0.1238332614302635</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.9197759628295898</v>
       </c>
       <c r="V66" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.401040107011795</v>
       </c>
       <c r="W66" t="n">
-        <v>0.3008565604686737</v>
+        <v>0.2690869271755219</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8775010108947754</v>
       </c>
       <c r="V67" t="n">
-        <v>0.505433976650238</v>
+        <v>0.5269080400466919</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1384338736534119</v>
+        <v>0.1229154318571091</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8817739486694336</v>
       </c>
       <c r="V68" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.5249155163764954</v>
       </c>
       <c r="W68" t="n">
-        <v>0.00879895593971014</v>
+        <v>0.1273479461669922</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8660259246826172</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.4000634849071503</v>
       </c>
       <c r="W69" t="n">
-        <v>0.130268931388855</v>
+        <v>0.2171209901571274</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.9152820110321045</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.8681403994560242</v>
       </c>
       <c r="W70" t="n">
-        <v>0.2476376295089722</v>
+        <v>0.002222331473603845</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8648760318756104</v>
       </c>
       <c r="V71" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.3992526829242706</v>
       </c>
       <c r="W71" t="n">
-        <v>0.0122658172622323</v>
+        <v>0.216805100440979</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8626019954681396</v>
       </c>
       <c r="V72" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.5240151882171631</v>
       </c>
       <c r="W72" t="n">
-        <v>0.2619932293891907</v>
+        <v>0.1146410256624222</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8610498905181885</v>
       </c>
       <c r="V73" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.8821863532066345</v>
       </c>
       <c r="W73" t="n">
-        <v>0.07774057984352112</v>
+        <v>0.0004467500548344105</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.9095571041107178</v>
       </c>
       <c r="V74" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.3990449011325836</v>
       </c>
       <c r="W74" t="n">
-        <v>0.0442400686442852</v>
+        <v>0.2606227397918701</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8855249881744385</v>
       </c>
       <c r="V75" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.8865615129470825</v>
       </c>
       <c r="W75" t="n">
-        <v>0.006649032235145569</v>
+        <v>1.07438359009393e-06</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8755559921264648</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.5177533626556396</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1487901359796524</v>
+        <v>0.1280227154493332</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8696420192718506</v>
       </c>
       <c r="V77" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.8795521259307861</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1333076059818268</v>
+        <v>9.821021376410499e-05</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.9143002033233643</v>
       </c>
       <c r="V78" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.8760190010070801</v>
       </c>
       <c r="W78" t="n">
-        <v>0.04910782724618912</v>
+        <v>0.001465450506657362</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8683340549468994</v>
       </c>
       <c r="V79" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.8741891384124756</v>
       </c>
       <c r="W79" t="n">
-        <v>0.01141871139407158</v>
+        <v>3.42820021614898e-05</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8561320304870605</v>
       </c>
       <c r="V80" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.5125906467437744</v>
       </c>
       <c r="W80" t="n">
-        <v>0.07047844678163528</v>
+        <v>0.1180206835269928</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8550889492034912</v>
       </c>
       <c r="V81" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.3990366458892822</v>
       </c>
       <c r="W81" t="n">
-        <v>0.0229524802416563</v>
+        <v>0.2079837024211884</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5951128005981445</v>
       </c>
       <c r="V82" t="n">
-        <v>0.372467577457428</v>
+        <v>0.5323395729064941</v>
       </c>
       <c r="W82" t="n">
-        <v>0.04957089573144913</v>
+        <v>0.003940477967262268</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5361039638519287</v>
       </c>
       <c r="V83" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.401011735200882</v>
       </c>
       <c r="W83" t="n">
-        <v>0.09152901172637939</v>
+        <v>0.01824991032481194</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5173749923706055</v>
       </c>
       <c r="V84" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.5665796995162964</v>
       </c>
       <c r="W84" t="n">
-        <v>0.0007265853346325457</v>
+        <v>0.002421103185042739</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5548489093780518</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.4000820815563202</v>
       </c>
       <c r="W85" t="n">
-        <v>0.004159639123827219</v>
+        <v>0.02395277097821236</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5071470737457275</v>
       </c>
       <c r="V86" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.4014575183391571</v>
       </c>
       <c r="W86" t="n">
-        <v>0.008007904514670372</v>
+        <v>0.01117028202861547</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5138027667999268</v>
       </c>
       <c r="V87" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.8708924651145935</v>
       </c>
       <c r="W87" t="n">
-        <v>0.2132288366556168</v>
+        <v>0.12751305103302</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5160069465637207</v>
       </c>
       <c r="V88" t="n">
-        <v>0.653571605682373</v>
+        <v>0.5220416784286499</v>
       </c>
       <c r="W88" t="n">
-        <v>0.0189240351319313</v>
+        <v>3.64179904863704e-05</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5132229328155518</v>
       </c>
       <c r="V89" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.8621504902839661</v>
       </c>
       <c r="W89" t="n">
-        <v>0.01941033266484737</v>
+        <v>0.1217504367232323</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5288739204406738</v>
       </c>
       <c r="V90" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.525912344455719</v>
       </c>
       <c r="W90" t="n">
-        <v>0.02469172887504101</v>
+        <v>8.770932254265063e-06</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5174040794372559</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.400782972574234</v>
       </c>
       <c r="W91" t="n">
-        <v>0.0001508244458818808</v>
+        <v>0.0136004826053977</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5164320468902588</v>
       </c>
       <c r="V92" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.5228250026702881</v>
       </c>
       <c r="W92" t="n">
-        <v>0.03341268002986908</v>
+        <v>4.086988337803632e-05</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5690090656280518</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.51786869764328</v>
       </c>
       <c r="W93" t="n">
-        <v>0.006284031551331282</v>
+        <v>0.002615337260067463</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5119409561157227</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.5455544590950012</v>
       </c>
       <c r="W94" t="n">
-        <v>0.006230531260371208</v>
+        <v>0.001129867625422776</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5144870281219482</v>
       </c>
       <c r="V95" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.528898298740387</v>
       </c>
       <c r="W95" t="n">
-        <v>0.08178482204675674</v>
+        <v>0.0002076847158605233</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5167090892791748</v>
       </c>
       <c r="V96" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.5242224335670471</v>
       </c>
       <c r="W96" t="n">
-        <v>0.002796917455270886</v>
+        <v>5.645034252665937e-05</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5157101154327393</v>
       </c>
       <c r="V97" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.8698549270629883</v>
       </c>
       <c r="W97" t="n">
-        <v>0.005130677949637175</v>
+        <v>0.1254185438156128</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5182831287384033</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.4004487693309784</v>
       </c>
       <c r="W98" t="n">
-        <v>4.214321234030649e-05</v>
+        <v>0.01388493645936251</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5152649879455566</v>
       </c>
       <c r="V99" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.4004852473735809</v>
       </c>
       <c r="W99" t="n">
-        <v>0.0005946241435594857</v>
+        <v>0.0131743885576725</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5177290439605713</v>
       </c>
       <c r="V100" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.5195093154907227</v>
       </c>
       <c r="W100" t="n">
-        <v>0.01841301470994949</v>
+        <v>3.169366664224071e-06</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5128660202026367</v>
       </c>
       <c r="V101" t="n">
-        <v>0.417652815580368</v>
+        <v>0.3998615443706512</v>
       </c>
       <c r="W101" t="n">
-        <v>0.009065554477274418</v>
+        <v>0.01277001202106476</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.400123119354248</v>
       </c>
       <c r="V102" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.886929988861084</v>
       </c>
       <c r="W102" t="n">
-        <v>0.002437337068840861</v>
+        <v>0.2369809299707413</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.399299144744873</v>
       </c>
       <c r="V103" t="n">
-        <v>0.802417516708374</v>
+        <v>0.8752093315124512</v>
       </c>
       <c r="W103" t="n">
-        <v>0.1625044196844101</v>
+        <v>0.2264905124902725</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4505109786987305</v>
       </c>
       <c r="V104" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.3998667299747467</v>
       </c>
       <c r="W104" t="n">
-        <v>0.2761991918087006</v>
+        <v>0.002564840018749237</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4121918678283691</v>
       </c>
       <c r="V105" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.3990499675273895</v>
       </c>
       <c r="W105" t="n">
-        <v>0.08757250010967255</v>
+        <v>0.000172709536855109</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.388131856918335</v>
       </c>
       <c r="V106" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.4016078412532806</v>
       </c>
       <c r="W106" t="n">
-        <v>0.08891091495752335</v>
+        <v>0.0001816021540435031</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3867380619049072</v>
       </c>
       <c r="V107" t="n">
-        <v>0.590633749961853</v>
+        <v>0.88736492395401</v>
       </c>
       <c r="W107" t="n">
-        <v>0.04157344996929169</v>
+        <v>0.2506272494792938</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3843681812286377</v>
       </c>
       <c r="V108" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.4014225006103516</v>
       </c>
       <c r="W108" t="n">
-        <v>0.07145416736602783</v>
+        <v>0.0002908497990574688</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3842189311981201</v>
       </c>
       <c r="V109" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.8665589690208435</v>
       </c>
       <c r="W109" t="n">
-        <v>0.3497267663478851</v>
+        <v>0.2326519191265106</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.386483907699585</v>
       </c>
       <c r="V110" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.5654327273368835</v>
       </c>
       <c r="W110" t="n">
-        <v>0.07137258350849152</v>
+        <v>0.03202268108725548</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3904011249542236</v>
       </c>
       <c r="V111" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.8732765316963196</v>
       </c>
       <c r="W111" t="n">
-        <v>0.01004194468259811</v>
+        <v>0.2331686615943909</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4041681289672852</v>
       </c>
       <c r="V112" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.4008056819438934</v>
       </c>
       <c r="W112" t="n">
-        <v>0.02960466779768467</v>
+        <v>1.130604960053461e-05</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3896360397338867</v>
       </c>
       <c r="V113" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.5233761072158813</v>
       </c>
       <c r="W113" t="n">
-        <v>7.020135512902925e-07</v>
+        <v>0.01788640581071377</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3841509819030762</v>
       </c>
       <c r="V114" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.8757357001304626</v>
       </c>
       <c r="W114" t="n">
-        <v>0.005976996850222349</v>
+        <v>0.2416555285453796</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.387484073638916</v>
       </c>
       <c r="V115" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.4004997909069061</v>
       </c>
       <c r="W115" t="n">
-        <v>0.005833027884364128</v>
+        <v>0.0001694089005468413</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3908090591430664</v>
       </c>
       <c r="V116" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.4010334014892578</v>
       </c>
       <c r="W116" t="n">
-        <v>0.01836634427309036</v>
+        <v>0.0001045371755026281</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3927419185638428</v>
       </c>
       <c r="V117" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.5257205367088318</v>
       </c>
       <c r="W117" t="n">
-        <v>0.0006162735517136753</v>
+        <v>0.01768331229686737</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.407804012298584</v>
       </c>
       <c r="V118" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.5199270248413086</v>
       </c>
       <c r="W118" t="n">
-        <v>0.1541629284620285</v>
+        <v>0.01257156953215599</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3922319412231445</v>
       </c>
       <c r="V119" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.8690829277038574</v>
       </c>
       <c r="W119" t="n">
-        <v>0.00474410830065608</v>
+        <v>0.227386862039566</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3988139629364014</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.8742882609367371</v>
       </c>
       <c r="W120" t="n">
-        <v>0.01577471196651459</v>
+        <v>0.2260758131742477</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.384242057800293</v>
       </c>
       <c r="V121" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.5240333676338196</v>
       </c>
       <c r="W121" t="n">
-        <v>0.00633400259539485</v>
+        <v>0.01954161003232002</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.9091389179229736</v>
       </c>
       <c r="V122" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.5319238901138306</v>
       </c>
       <c r="W122" t="n">
-        <v>0.3118072152137756</v>
+        <v>0.1422911733388901</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9102339744567871</v>
       </c>
       <c r="V123" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.5158612728118896</v>
       </c>
       <c r="W123" t="n">
-        <v>0.1642758846282959</v>
+        <v>0.1555298268795013</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8868200778961182</v>
       </c>
       <c r="V124" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.5223151445388794</v>
       </c>
       <c r="W124" t="n">
-        <v>0.05388419330120087</v>
+        <v>0.132863849401474</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8696630001068115</v>
       </c>
       <c r="V125" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.3990692794322968</v>
       </c>
       <c r="W125" t="n">
-        <v>0.1190816611051559</v>
+        <v>0.2214584499597549</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.9365401268005371</v>
       </c>
       <c r="V126" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.8728120923042297</v>
       </c>
       <c r="W126" t="n">
-        <v>0.2184019386768341</v>
+        <v>0.004061262588948011</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8925900459289551</v>
       </c>
       <c r="V127" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.8782153129577637</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1858292371034622</v>
+        <v>0.0002066329470835626</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8618149757385254</v>
       </c>
       <c r="V128" t="n">
-        <v>0.708076536655426</v>
+        <v>0.3990553319454193</v>
       </c>
       <c r="W128" t="n">
-        <v>0.023635508492589</v>
+        <v>0.2141464948654175</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8639340400695801</v>
       </c>
       <c r="V129" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.5164118409156799</v>
       </c>
       <c r="W129" t="n">
-        <v>0.2357877045869827</v>
+        <v>0.1207716763019562</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.944782018661499</v>
       </c>
       <c r="V130" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.5268623232841492</v>
       </c>
       <c r="W130" t="n">
-        <v>0.2064468115568161</v>
+        <v>0.174656867980957</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8659770488739014</v>
       </c>
       <c r="V131" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.5162190198898315</v>
       </c>
       <c r="W131" t="n">
-        <v>0.2269726246595383</v>
+        <v>0.1223306804895401</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8896629810333252</v>
       </c>
       <c r="V132" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.5175912380218506</v>
       </c>
       <c r="W132" t="n">
-        <v>0.007532405201345682</v>
+        <v>0.1384373754262924</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9097139835357666</v>
       </c>
       <c r="V133" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.4004238247871399</v>
       </c>
       <c r="W133" t="n">
-        <v>0.005736670922487974</v>
+        <v>0.2593764662742615</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.912787914276123</v>
       </c>
       <c r="V134" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.4000592529773712</v>
       </c>
       <c r="W134" t="n">
-        <v>0.06701519340276718</v>
+        <v>0.2628906965255737</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8688828945159912</v>
       </c>
       <c r="V135" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.5236817598342896</v>
       </c>
       <c r="W135" t="n">
-        <v>0.2406244575977325</v>
+        <v>0.1191638261079788</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8623809814453125</v>
       </c>
       <c r="V136" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.3990557491779327</v>
       </c>
       <c r="W136" t="n">
-        <v>0.003613137174397707</v>
+        <v>0.2146702706813812</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8649418354034424</v>
       </c>
       <c r="V137" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.4007125198841095</v>
       </c>
       <c r="W137" t="n">
-        <v>0.2431008070707321</v>
+        <v>0.2155088633298874</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.9149141311645508</v>
       </c>
       <c r="V138" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.51903235912323</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1148487031459808</v>
+        <v>0.1567223817110062</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8701250553131104</v>
       </c>
       <c r="V139" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.5229648351669312</v>
       </c>
       <c r="W139" t="n">
-        <v>0.1653508543968201</v>
+        <v>0.12052021920681</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8615531921386719</v>
       </c>
       <c r="V140" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.5046142339706421</v>
       </c>
       <c r="W140" t="n">
-        <v>0.003595852991566062</v>
+        <v>0.1274054199457169</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.862091064453125</v>
       </c>
       <c r="V141" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.4005092680454254</v>
       </c>
       <c r="W141" t="n">
-        <v>0.233696460723877</v>
+        <v>0.2130577564239502</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5714890956878662</v>
       </c>
       <c r="V142" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.883860170841217</v>
       </c>
       <c r="W142" t="n">
-        <v>0.006283998489379883</v>
+        <v>0.09757568687200546</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5153710842132568</v>
       </c>
       <c r="V143" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.4015920460224152</v>
       </c>
       <c r="W143" t="n">
-        <v>9.215167665388435e-05</v>
+        <v>0.01294566970318556</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5186259746551514</v>
       </c>
       <c r="V144" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.399975061416626</v>
       </c>
       <c r="W144" t="n">
-        <v>0.03261930495500565</v>
+        <v>0.014078039675951</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5157039165496826</v>
       </c>
       <c r="V145" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.5265236496925354</v>
       </c>
       <c r="W145" t="n">
-        <v>8.443351543974131e-05</v>
+        <v>0.0001170666218968108</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5191919803619385</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.8725154995918274</v>
       </c>
       <c r="W146" t="n">
-        <v>0.003263071877881885</v>
+        <v>0.1248375102877617</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.53696608543396</v>
       </c>
       <c r="V147" t="n">
-        <v>0.490907609462738</v>
+        <v>0.8591764569282532</v>
       </c>
       <c r="W147" t="n">
-        <v>0.00212138332426548</v>
+        <v>0.1038195267319679</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.514862060546875</v>
       </c>
       <c r="V148" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.516450822353363</v>
       </c>
       <c r="W148" t="n">
-        <v>0.002887733979150653</v>
+        <v>2.524164074202417e-06</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5167319774627686</v>
       </c>
       <c r="V149" t="n">
-        <v>0.97564297914505</v>
+        <v>0.4010311365127563</v>
       </c>
       <c r="W149" t="n">
-        <v>0.2105993032455444</v>
+        <v>0.01338668446987867</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5160179138183594</v>
       </c>
       <c r="V150" t="n">
-        <v>0.417630136013031</v>
+        <v>0.8675135970115662</v>
       </c>
       <c r="W150" t="n">
-        <v>0.009680154733359814</v>
+        <v>0.1235492154955864</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5154118537902832</v>
       </c>
       <c r="V151" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.8664076924324036</v>
       </c>
       <c r="W151" t="n">
-        <v>0.01908396743237972</v>
+        <v>0.123198077082634</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5124261379241943</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.4007930159568787</v>
       </c>
       <c r="W152" t="n">
-        <v>0.0004612928605638444</v>
+        <v>0.01246195379644632</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5701191425323486</v>
       </c>
       <c r="V153" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.399041086435318</v>
       </c>
       <c r="W153" t="n">
-        <v>0.02327701635658741</v>
+        <v>0.0292677003890276</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5161011219024658</v>
       </c>
       <c r="V154" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.873635470867157</v>
       </c>
       <c r="W154" t="n">
-        <v>0.2112730145454407</v>
+        <v>0.1278308033943176</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5195460319519043</v>
       </c>
       <c r="V155" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.8733698725700378</v>
       </c>
       <c r="W155" t="n">
-        <v>0.003975998144596815</v>
+        <v>0.1251913160085678</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5168900489807129</v>
       </c>
       <c r="V156" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.5238921046257019</v>
       </c>
       <c r="W156" t="n">
-        <v>0.00986999087035656</v>
+        <v>4.902878208667971e-05</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5153939723968506</v>
       </c>
       <c r="V157" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.5166090726852417</v>
       </c>
       <c r="W157" t="n">
-        <v>0.002944579347968102</v>
+        <v>1.476468696637312e-06</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5407888889312744</v>
       </c>
       <c r="V158" t="n">
-        <v>0.35074183344841</v>
+        <v>0.3990309238433838</v>
       </c>
       <c r="W158" t="n">
-        <v>0.03611788153648376</v>
+        <v>0.02009532041847706</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5208480358123779</v>
       </c>
       <c r="V159" t="n">
-        <v>0.417663037776947</v>
+        <v>0.3990728557109833</v>
       </c>
       <c r="W159" t="n">
-        <v>0.01064714416861534</v>
+        <v>0.01482919417321682</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5156939029693604</v>
       </c>
       <c r="V160" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.5188762545585632</v>
       </c>
       <c r="W160" t="n">
-        <v>0.0336904488503933</v>
+        <v>1.012736174743623e-05</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5186309814453125</v>
       </c>
       <c r="V161" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.8667820692062378</v>
       </c>
       <c r="W161" t="n">
-        <v>4.276770778233185e-05</v>
+        <v>0.1212091818451881</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3936100006103516</v>
       </c>
       <c r="V162" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.5166148543357849</v>
       </c>
       <c r="W162" t="n">
-        <v>0.06684689223766327</v>
+        <v>0.01513019390404224</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3894939422607422</v>
       </c>
       <c r="V163" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.4005119502544403</v>
       </c>
       <c r="W163" t="n">
-        <v>0.07037658244371414</v>
+        <v>0.0001213965006172657</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.4398760795593262</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.8777320981025696</v>
       </c>
       <c r="W164" t="n">
-        <v>0.002584077417850494</v>
+        <v>0.1917178928852081</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3914239406585693</v>
       </c>
       <c r="V165" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.4004674851894379</v>
       </c>
       <c r="W165" t="n">
-        <v>0.0006865616305731237</v>
+        <v>8.178569987649098e-05</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3888819217681885</v>
       </c>
       <c r="V166" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.5177990198135376</v>
       </c>
       <c r="W166" t="n">
-        <v>0.01873761415481567</v>
+        <v>0.01661961898207664</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3887720108032227</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.8778650164604187</v>
       </c>
       <c r="W167" t="n">
-        <v>0.01334616541862488</v>
+        <v>0.2392119616270065</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3896520137786865</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.3998878598213196</v>
       </c>
       <c r="W168" t="n">
-        <v>0.000784752715844661</v>
+        <v>0.0001047725454554893</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3978087902069092</v>
       </c>
       <c r="V169" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.3990656435489655</v>
       </c>
       <c r="W169" t="n">
-        <v>0.01153641194105148</v>
+        <v>1.579680315444421e-06</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.391603946685791</v>
       </c>
       <c r="V170" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.5133335590362549</v>
       </c>
       <c r="W170" t="n">
-        <v>0.06874637305736542</v>
+        <v>0.01481809839606285</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3898417949676514</v>
       </c>
       <c r="V171" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.8892755508422852</v>
       </c>
       <c r="W171" t="n">
-        <v>0.01821238175034523</v>
+        <v>0.2494340837001801</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4034278392791748</v>
       </c>
       <c r="V172" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.5188819169998169</v>
       </c>
       <c r="W172" t="n">
-        <v>0.1590327024459839</v>
+        <v>0.0133296437561512</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3966429233551025</v>
       </c>
       <c r="V173" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.8759331107139587</v>
       </c>
       <c r="W173" t="n">
-        <v>0.01664723083376884</v>
+        <v>0.2297190874814987</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4077138900756836</v>
       </c>
       <c r="V174" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.8743979334831238</v>
       </c>
       <c r="W174" t="n">
-        <v>0.03433971107006073</v>
+        <v>0.2177940011024475</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.4001798629760742</v>
       </c>
       <c r="V175" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.8731666207313538</v>
       </c>
       <c r="W175" t="n">
-        <v>0.01083244010806084</v>
+        <v>0.2237164676189423</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3920331001281738</v>
       </c>
       <c r="V176" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.4004524648189545</v>
       </c>
       <c r="W176" t="n">
-        <v>0.1950918138027191</v>
+        <v>7.088570419000462e-05</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4064059257507324</v>
       </c>
       <c r="V177" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.873683750629425</v>
       </c>
       <c r="W177" t="n">
-        <v>0.02881080470979214</v>
+        <v>0.2183485627174377</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3917720317840576</v>
       </c>
       <c r="V178" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.8813967108726501</v>
       </c>
       <c r="W178" t="n">
-        <v>0.3410117924213409</v>
+        <v>0.2397323250770569</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.391556978225708</v>
       </c>
       <c r="V179" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.4000701606273651</v>
       </c>
       <c r="W179" t="n">
-        <v>0.06855237483978271</v>
+        <v>7.24742712918669e-05</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3911919593811035</v>
       </c>
       <c r="V180" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.5162814259529114</v>
       </c>
       <c r="W180" t="n">
-        <v>0.0003645315300673246</v>
+        <v>0.01564737409353256</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4147608280181885</v>
       </c>
       <c r="V181" t="n">
-        <v>0.417653352022171</v>
+        <v>0.400212287902832</v>
       </c>
       <c r="W181" t="n">
-        <v>8.366695510630962e-06</v>
+        <v>0.0002116600226145238</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.9369480609893799</v>
       </c>
       <c r="V182" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.8565735816955566</v>
       </c>
       <c r="W182" t="n">
-        <v>0.001488425652496517</v>
+        <v>0.006460057105869055</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8889210224151611</v>
       </c>
       <c r="V183" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.3993883430957794</v>
       </c>
       <c r="W183" t="n">
-        <v>0.2896265387535095</v>
+        <v>0.2396422475576401</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8724081516265869</v>
       </c>
       <c r="V184" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.5307257771492004</v>
       </c>
       <c r="W184" t="n">
-        <v>0.02701579220592976</v>
+        <v>0.1167468428611755</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8758549690246582</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.5240311026573181</v>
       </c>
       <c r="W185" t="n">
-        <v>0.170051172375679</v>
+        <v>0.1237800344824791</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.9212911128997803</v>
       </c>
       <c r="V186" t="n">
-        <v>0.699232816696167</v>
+        <v>0.8694385886192322</v>
       </c>
       <c r="W186" t="n">
-        <v>0.04930988699197769</v>
+        <v>0.002688684267923236</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.889056921005249</v>
       </c>
       <c r="V187" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.3990598618984222</v>
       </c>
       <c r="W187" t="n">
-        <v>0.05556264519691467</v>
+        <v>0.2400971204042435</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8663330078125</v>
       </c>
       <c r="V188" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.518369197845459</v>
       </c>
       <c r="W188" t="n">
-        <v>0.04494981840252876</v>
+        <v>0.1210788115859032</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8849420547485352</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.5232840776443481</v>
       </c>
       <c r="W189" t="n">
-        <v>0.09167109429836273</v>
+        <v>0.130796492099762</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.9344451427459717</v>
       </c>
       <c r="V190" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.5274780988693237</v>
       </c>
       <c r="W190" t="n">
-        <v>0.00169322220608592</v>
+        <v>0.1656221747398376</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8654191493988037</v>
       </c>
       <c r="V191" t="n">
-        <v>0.802345335483551</v>
+        <v>0.8638468384742737</v>
       </c>
       <c r="W191" t="n">
-        <v>0.003978305961936712</v>
+        <v>2.472161668265471e-06</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8727819919586182</v>
       </c>
       <c r="V192" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.5217992663383484</v>
       </c>
       <c r="W192" t="n">
-        <v>0.001196798402816057</v>
+        <v>0.1231888756155968</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8820431232452393</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.8628131151199341</v>
       </c>
       <c r="W193" t="n">
-        <v>0.2158119231462479</v>
+        <v>0.0003697932115755975</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.9176759719848633</v>
       </c>
       <c r="V194" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.8775015473365784</v>
       </c>
       <c r="W194" t="n">
-        <v>0.208145797252655</v>
+        <v>0.001613984350115061</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8743431568145752</v>
       </c>
       <c r="V195" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.8687435984611511</v>
       </c>
       <c r="W195" t="n">
-        <v>0.03299712762236595</v>
+        <v>3.135505539830774e-05</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8636560440063477</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.4004345834255219</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1989355981349945</v>
+        <v>0.2145741283893585</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8765809535980225</v>
       </c>
       <c r="V197" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.4015530943870544</v>
       </c>
       <c r="W197" t="n">
-        <v>0.09022330492734909</v>
+        <v>0.2256514728069305</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.9203028678894043</v>
       </c>
       <c r="V198" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.5229962468147278</v>
       </c>
       <c r="W198" t="n">
-        <v>0.2937100529670715</v>
+        <v>0.1578525453805923</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8729829788208008</v>
       </c>
       <c r="V199" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.5109731554985046</v>
       </c>
       <c r="W199" t="n">
-        <v>0.02713923715054989</v>
+        <v>0.1310511082410812</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8634300231933594</v>
       </c>
       <c r="V200" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.5115517973899841</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1597053408622742</v>
+        <v>0.1238182857632637</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8862659931182861</v>
       </c>
       <c r="V201" t="n">
-        <v>0.652911365032196</v>
+        <v>0.5285599827766418</v>
       </c>
       <c r="W201" t="n">
-        <v>0.05445438250899315</v>
+        <v>0.1279535889625549</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5704789161682129</v>
       </c>
       <c r="V202" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.4014388024806976</v>
       </c>
       <c r="W202" t="n">
-        <v>0.00454441225156188</v>
+        <v>0.02857455983757973</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5153689384460449</v>
       </c>
       <c r="V203" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.400067001581192</v>
       </c>
       <c r="W203" t="n">
-        <v>0.02921106293797493</v>
+        <v>0.01329453662037849</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5264430046081543</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.8874782919883728</v>
       </c>
       <c r="W204" t="n">
-        <v>0.01183374226093292</v>
+        <v>0.1303464770317078</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.518488883972168</v>
       </c>
       <c r="V205" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.5247058272361755</v>
       </c>
       <c r="W205" t="n">
-        <v>0.005807331297546625</v>
+        <v>3.865038524963893e-05</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5168240070343018</v>
       </c>
       <c r="V206" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.3990683853626251</v>
       </c>
       <c r="W206" t="n">
-        <v>0.003525594482198358</v>
+        <v>0.01386638637632132</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5265250205993652</v>
       </c>
       <c r="V207" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.8686462044715881</v>
       </c>
       <c r="W207" t="n">
-        <v>0.03089074976742268</v>
+        <v>0.117046907544136</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.6941189765930176</v>
       </c>
       <c r="V208" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.8821126818656921</v>
       </c>
       <c r="W208" t="n">
-        <v>0.07644753158092499</v>
+        <v>0.03534163162112236</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5181560516357422</v>
       </c>
       <c r="V209" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.8779526948928833</v>
       </c>
       <c r="W209" t="n">
-        <v>0.004752195440232754</v>
+        <v>0.1294536292552948</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5236568450927734</v>
       </c>
       <c r="V210" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.5207758545875549</v>
       </c>
       <c r="W210" t="n">
-        <v>0.02988447248935699</v>
+        <v>8.300105946545955e-06</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5163500308990479</v>
       </c>
       <c r="V211" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.4014095664024353</v>
       </c>
       <c r="W211" t="n">
-        <v>0.02085180766880512</v>
+        <v>0.01321131084114313</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5207400321960449</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.5174784064292908</v>
       </c>
       <c r="W212" t="n">
-        <v>0.003055782755836844</v>
+        <v>1.063820309354924e-05</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5241680145263672</v>
       </c>
       <c r="V213" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.401468813419342</v>
       </c>
       <c r="W213" t="n">
-        <v>0.0231793150305748</v>
+        <v>0.0150550939142704</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5228149890899658</v>
       </c>
       <c r="V214" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.5216535925865173</v>
       </c>
       <c r="W214" t="n">
-        <v>0.003577241208404303</v>
+        <v>1.348841806247947e-06</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5222890377044678</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.3999330699443817</v>
       </c>
       <c r="W215" t="n">
-        <v>0.002818887354806066</v>
+        <v>0.01497098244726658</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5167880058288574</v>
       </c>
       <c r="V216" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.5162659883499146</v>
       </c>
       <c r="W216" t="n">
-        <v>0.0001413592108292505</v>
+        <v>2.725022341110162e-07</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5181658267974854</v>
       </c>
       <c r="V217" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.5161218047142029</v>
       </c>
       <c r="W217" t="n">
-        <v>0.0007757454295642674</v>
+        <v>4.178026301815407e-06</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.560042142868042</v>
       </c>
       <c r="V218" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.4010140597820282</v>
       </c>
       <c r="W218" t="n">
-        <v>0.02027983777225018</v>
+        <v>0.02528993040323257</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.52394700050354</v>
       </c>
       <c r="V219" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.4003798067569733</v>
       </c>
       <c r="W219" t="n">
-        <v>3.070099410251714e-07</v>
+        <v>0.01526885107159615</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5214588642120361</v>
       </c>
       <c r="V220" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.5248497724533081</v>
       </c>
       <c r="W220" t="n">
-        <v>0.01727200485765934</v>
+        <v>1.149825857282849e-05</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5173630714416504</v>
       </c>
       <c r="V221" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.5256926417350769</v>
       </c>
       <c r="W221" t="n">
-        <v>0.2099622339010239</v>
+        <v>6.938174192328006e-05</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3870358467102051</v>
       </c>
       <c r="V222" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.8690323233604431</v>
       </c>
       <c r="W222" t="n">
-        <v>0.1743321418762207</v>
+        <v>0.2323206067085266</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3887770175933838</v>
       </c>
       <c r="V223" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.5270775556564331</v>
       </c>
       <c r="W223" t="n">
-        <v>0.001445306232199073</v>
+        <v>0.01912703923881054</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3911609649658203</v>
       </c>
       <c r="V224" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.8740109801292419</v>
       </c>
       <c r="W224" t="n">
-        <v>0.192272886633873</v>
+        <v>0.2331441342830658</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3914890289306641</v>
       </c>
       <c r="V225" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.8689835667610168</v>
       </c>
       <c r="W225" t="n">
-        <v>0.03413340821862221</v>
+        <v>0.2280010282993317</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3928358554840088</v>
       </c>
       <c r="V226" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.5224402546882629</v>
       </c>
       <c r="W226" t="n">
-        <v>0.09937699139118195</v>
+        <v>0.01679730042815208</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3963439464569092</v>
       </c>
       <c r="V227" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.3999430239200592</v>
       </c>
       <c r="W227" t="n">
-        <v>0.002011481672525406</v>
+        <v>1.29533582367003e-05</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3940498828887939</v>
       </c>
       <c r="V228" t="n">
-        <v>0.490370512008667</v>
+        <v>0.4014581143856049</v>
       </c>
       <c r="W228" t="n">
-        <v>0.009277663193643093</v>
+        <v>5.488189344760031e-05</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.3922841548919678</v>
       </c>
       <c r="V229" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.4008249938488007</v>
       </c>
       <c r="W229" t="n">
-        <v>0.06811510771512985</v>
+        <v>7.294592796824872e-05</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.4481370449066162</v>
       </c>
       <c r="V230" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.4014396071434021</v>
       </c>
       <c r="W230" t="n">
-        <v>0.04201433807611465</v>
+        <v>0.002180650597438216</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.4269349575042725</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.3993697166442871</v>
       </c>
       <c r="W231" t="n">
-        <v>0.006027089897543192</v>
+        <v>0.000759842514526099</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4172520637512207</v>
       </c>
       <c r="V232" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.5277264714241028</v>
       </c>
       <c r="W232" t="n">
-        <v>0.1465448141098022</v>
+        <v>0.01220459491014481</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3953630924224854</v>
       </c>
       <c r="V233" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.8704169988632202</v>
       </c>
       <c r="W233" t="n">
-        <v>0.01701499707996845</v>
+        <v>0.2256762087345123</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.400148868560791</v>
       </c>
       <c r="V234" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.399885356426239</v>
       </c>
       <c r="W234" t="n">
-        <v>0.00233242055401206</v>
+        <v>6.94386415034387e-08</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3956191539764404</v>
       </c>
       <c r="V235" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.8710535168647766</v>
       </c>
       <c r="W235" t="n">
-        <v>0.06666717678308487</v>
+        <v>0.2260378301143646</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4491050243377686</v>
       </c>
       <c r="V236" t="n">
-        <v>0.576347291469574</v>
+        <v>0.3999818861484528</v>
       </c>
       <c r="W236" t="n">
-        <v>0.01619059406220913</v>
+        <v>0.00241308263503015</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4037191867828369</v>
       </c>
       <c r="V237" t="n">
-        <v>0.975181519985199</v>
+        <v>0.4001940190792084</v>
       </c>
       <c r="W237" t="n">
-        <v>0.3265691995620728</v>
+        <v>1.242680718860356e-05</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3884410858154297</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.8744774460792542</v>
       </c>
       <c r="W238" t="n">
-        <v>0.01859770528972149</v>
+        <v>0.236231341958046</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3857548236846924</v>
       </c>
       <c r="V239" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.4004786908626556</v>
       </c>
       <c r="W239" t="n">
-        <v>0.001225611078552902</v>
+        <v>0.0002167922648368403</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3875968456268311</v>
       </c>
       <c r="V240" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.8669570088386536</v>
       </c>
       <c r="W240" t="n">
-        <v>0.2020911574363708</v>
+        <v>0.2297861725091934</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3886570930480957</v>
       </c>
       <c r="V241" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.3990596234798431</v>
       </c>
       <c r="W241" t="n">
-        <v>0.01355900894850492</v>
+        <v>0.0001082126400433481</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9496819972991943</v>
       </c>
       <c r="V242" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.5255528688430786</v>
       </c>
       <c r="W242" t="n">
-        <v>0.3576046228408813</v>
+        <v>0.179885521531105</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8892998695373535</v>
       </c>
       <c r="V243" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.8728623986244202</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1810354739427567</v>
+        <v>0.0002701904450077564</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8852808475494385</v>
       </c>
       <c r="V244" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.8725845217704773</v>
       </c>
       <c r="W244" t="n">
-        <v>0.03461812809109688</v>
+        <v>0.00016119668725878</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8852231502532959</v>
       </c>
       <c r="V245" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.8834690451622009</v>
       </c>
       <c r="W245" t="n">
-        <v>0.144800990819931</v>
+        <v>3.076884695474291e-06</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9177401065826416</v>
       </c>
       <c r="V246" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.8653956055641174</v>
       </c>
       <c r="W246" t="n">
-        <v>0.1166485399007797</v>
+        <v>0.002739946823567152</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.871103048324585</v>
       </c>
       <c r="V247" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.8641135096549988</v>
       </c>
       <c r="W247" t="n">
-        <v>0.270740270614624</v>
+        <v>4.885364978690632e-05</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8658900260925293</v>
       </c>
       <c r="V248" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.5249764323234558</v>
       </c>
       <c r="W248" t="n">
-        <v>0.140667513012886</v>
+        <v>0.1162220761179924</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8719799518585205</v>
       </c>
       <c r="V249" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.3992660939693451</v>
       </c>
       <c r="W249" t="n">
-        <v>0.2498481869697571</v>
+        <v>0.223458394408226</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.9161498546600342</v>
       </c>
       <c r="V250" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.4004798233509064</v>
       </c>
       <c r="W250" t="n">
-        <v>0.3196601867675781</v>
+        <v>0.2659156024456024</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8787980079650879</v>
       </c>
       <c r="V251" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.8694605231285095</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1406630873680115</v>
+        <v>8.71886222739704e-05</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8635070323944092</v>
       </c>
       <c r="V252" t="n">
-        <v>0.417632520198822</v>
+        <v>0.3992714583873749</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1988040804862976</v>
+        <v>0.215514674782753</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.879525899887085</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.8867699503898621</v>
       </c>
       <c r="W253" t="n">
-        <v>0.1402549594640732</v>
+        <v>5.247626904747449e-05</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9203910827636719</v>
       </c>
       <c r="V254" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.4004458487033844</v>
       </c>
       <c r="W254" t="n">
-        <v>0.01339698955416679</v>
+        <v>0.2703430652618408</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8791561126708984</v>
       </c>
       <c r="V255" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.4000556766986847</v>
       </c>
       <c r="W255" t="n">
-        <v>0.08530618995428085</v>
+        <v>0.229537233710289</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8619508743286133</v>
       </c>
       <c r="V256" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.5279161334037781</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1138138771057129</v>
+        <v>0.1115792095661163</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8709101676940918</v>
       </c>
       <c r="V257" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.8809506297111511</v>
       </c>
       <c r="W257" t="n">
-        <v>0.2054427415132523</v>
+        <v>0.0001008108811220154</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.9234578609466553</v>
       </c>
       <c r="V258" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.5227708220481873</v>
       </c>
       <c r="W258" t="n">
-        <v>0.2558604180812836</v>
+        <v>0.1605501025915146</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.873528003692627</v>
       </c>
       <c r="V259" t="n">
-        <v>0.490833193063736</v>
+        <v>0.5216483473777771</v>
       </c>
       <c r="W259" t="n">
-        <v>0.146455317735672</v>
+        <v>0.1238192915916443</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8543469905853271</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.8703225255012512</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1908239722251892</v>
+        <v>0.0002552177174948156</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8821201324462891</v>
       </c>
       <c r="V261" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.3990680873394012</v>
       </c>
       <c r="W261" t="n">
-        <v>0.2823216915130615</v>
+        <v>0.2333392798900604</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5461618900299072</v>
       </c>
       <c r="V262" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.8755190968513489</v>
       </c>
       <c r="W262" t="n">
-        <v>0.0004434980801306665</v>
+        <v>0.1084761694073677</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.539139986038208</v>
       </c>
       <c r="V263" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.8661046624183655</v>
       </c>
       <c r="W263" t="n">
-        <v>0.01315281260758638</v>
+        <v>0.1069058999419212</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5213491916656494</v>
       </c>
       <c r="V264" t="n">
-        <v>0.653493344783783</v>
+        <v>0.873635470867157</v>
       </c>
       <c r="W264" t="n">
-        <v>0.01746207661926746</v>
+        <v>0.1241056248545647</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.525521993637085</v>
       </c>
       <c r="V265" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.8818870186805725</v>
       </c>
       <c r="W265" t="n">
-        <v>0.002577446168288589</v>
+        <v>0.1269960254430771</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5207290649414062</v>
       </c>
       <c r="V266" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.8744528889656067</v>
       </c>
       <c r="W266" t="n">
-        <v>0.02020648308098316</v>
+        <v>0.1251205503940582</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5833079814910889</v>
       </c>
       <c r="V267" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.8859742879867554</v>
       </c>
       <c r="W267" t="n">
-        <v>0.05582419410347939</v>
+        <v>0.09160689264535904</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5208408832550049</v>
       </c>
       <c r="V268" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.5261265635490417</v>
       </c>
       <c r="W268" t="n">
-        <v>0.0002900107647292316</v>
+        <v>2.79384166788077e-05</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5240540504455566</v>
       </c>
       <c r="V269" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.5123707056045532</v>
       </c>
       <c r="W269" t="n">
-        <v>0.01685138791799545</v>
+        <v>0.0001365005446132272</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5189509391784668</v>
       </c>
       <c r="V270" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.4014677107334137</v>
       </c>
       <c r="W270" t="n">
-        <v>0.09932179003953934</v>
+        <v>0.01380230858922005</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5152859687805176</v>
       </c>
       <c r="V271" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.8719093799591064</v>
       </c>
       <c r="W271" t="n">
-        <v>0.002896994818001986</v>
+        <v>0.1271802634000778</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5261139869689941</v>
       </c>
       <c r="V272" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.5166228413581848</v>
       </c>
       <c r="W272" t="n">
-        <v>0.004192070569843054</v>
+        <v>9.008184861158952e-05</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5276229381561279</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.3999680876731873</v>
       </c>
       <c r="W273" t="n">
-        <v>1.050216633302625e-05</v>
+        <v>0.01629576086997986</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5326800346374512</v>
       </c>
       <c r="V274" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.5216571688652039</v>
       </c>
       <c r="W274" t="n">
-        <v>0.02920806966722012</v>
+        <v>0.0001215035663335584</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5212090015411377</v>
       </c>
       <c r="V275" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.8921380639076233</v>
       </c>
       <c r="W275" t="n">
-        <v>0.02054602839052677</v>
+        <v>0.1375883668661118</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5191688537597656</v>
       </c>
       <c r="V276" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.3990719616413116</v>
       </c>
       <c r="W276" t="n">
-        <v>0.003063022624701262</v>
+        <v>0.01442326325923204</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5236070156097412</v>
       </c>
       <c r="V277" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.3998663425445557</v>
       </c>
       <c r="W277" t="n">
-        <v>0.01122206170111895</v>
+        <v>0.01531175430864096</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5721619129180908</v>
       </c>
       <c r="V278" t="n">
-        <v>0.371780127286911</v>
+        <v>0.4005146324634552</v>
       </c>
       <c r="W278" t="n">
-        <v>0.04015285894274712</v>
+        <v>0.0294627882540226</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5233790874481201</v>
       </c>
       <c r="V279" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.8668014407157898</v>
       </c>
       <c r="W279" t="n">
-        <v>0.003586637321859598</v>
+        <v>0.1179389134049416</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5223000049591064</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.5278393626213074</v>
       </c>
       <c r="W280" t="n">
-        <v>0.0002710866974666715</v>
+        <v>3.068448495469056e-05</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5223350524902344</v>
       </c>
       <c r="V281" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.8608866930007935</v>
       </c>
       <c r="W281" t="n">
-        <v>0.02259726449847221</v>
+        <v>0.1146172136068344</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4067718982696533</v>
       </c>
       <c r="V282" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.5165024995803833</v>
       </c>
       <c r="W282" t="n">
-        <v>0.009736851789057255</v>
+        <v>0.01204080507159233</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3983428478240967</v>
       </c>
       <c r="V283" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.8668921589851379</v>
       </c>
       <c r="W283" t="n">
-        <v>0.01635309122502804</v>
+        <v>0.2195384502410889</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3978960514068604</v>
       </c>
       <c r="V284" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.3992754220962524</v>
       </c>
       <c r="W284" t="n">
-        <v>0.06574706733226776</v>
+        <v>1.902663484543154e-06</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3973360061645508</v>
       </c>
       <c r="V285" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.5257563591003418</v>
       </c>
       <c r="W285" t="n">
-        <v>0.01624407805502415</v>
+        <v>0.01649178750813007</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3972830772399902</v>
       </c>
       <c r="V286" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.3999416828155518</v>
       </c>
       <c r="W286" t="n">
-        <v>0.1643811911344528</v>
+        <v>7.0681835495634e-06</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3988401889801025</v>
       </c>
       <c r="V287" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.5164663195610046</v>
       </c>
       <c r="W287" t="n">
-        <v>0.1619424670934677</v>
+        <v>0.01383590698242188</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.396812915802002</v>
       </c>
       <c r="V288" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.5165451169013977</v>
       </c>
       <c r="W288" t="n">
-        <v>0.06589380651712418</v>
+        <v>0.01433579996228218</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.3973720073699951</v>
       </c>
       <c r="V289" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.8667586445808411</v>
       </c>
       <c r="W289" t="n">
-        <v>0.002173630986362696</v>
+        <v>0.2203238159418106</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.4222288131713867</v>
       </c>
       <c r="V290" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.5159114003181458</v>
       </c>
       <c r="W290" t="n">
-        <v>0.05325264483690262</v>
+        <v>0.008776427246630192</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3997540473937988</v>
       </c>
       <c r="V291" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.5135788321495056</v>
       </c>
       <c r="W291" t="n">
-        <v>0.1848373264074326</v>
+        <v>0.01295608188956976</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.3999660015106201</v>
       </c>
       <c r="V292" t="n">
-        <v>0.503772497177124</v>
+        <v>0.5281967520713806</v>
       </c>
       <c r="W292" t="n">
-        <v>0.01077578868716955</v>
+        <v>0.01644312590360641</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4054460525512695</v>
       </c>
       <c r="V293" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.3999781906604767</v>
       </c>
       <c r="W293" t="n">
-        <v>0.1838179081678391</v>
+        <v>2.989751374116167e-05</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3965158462524414</v>
       </c>
       <c r="V294" t="n">
-        <v>0.975210964679718</v>
+        <v>0.5204728841781616</v>
       </c>
       <c r="W294" t="n">
-        <v>0.3348880410194397</v>
+        <v>0.0153653472661972</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3961338996887207</v>
       </c>
       <c r="V295" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.8632616400718689</v>
       </c>
       <c r="W295" t="n">
-        <v>0.002402240876108408</v>
+        <v>0.2182083278894424</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4418020248413086</v>
       </c>
       <c r="V296" t="n">
-        <v>0.524641752243042</v>
+        <v>0.5182418823242188</v>
       </c>
       <c r="W296" t="n">
-        <v>0.006862420588731766</v>
+        <v>0.005843051709234715</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3980121612548828</v>
       </c>
       <c r="V297" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.8658128976821899</v>
       </c>
       <c r="W297" t="n">
-        <v>0.1632274985313416</v>
+        <v>0.2188375294208527</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3987460136413574</v>
       </c>
       <c r="V298" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.5665149688720703</v>
       </c>
       <c r="W298" t="n">
-        <v>0.0004203907155897468</v>
+        <v>0.02814642153680325</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4031040668487549</v>
       </c>
       <c r="V299" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.4010128676891327</v>
       </c>
       <c r="W299" t="n">
-        <v>0.000208543729968369</v>
+        <v>4.373113824840402e-06</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3972420692443848</v>
       </c>
       <c r="V300" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.5322834253311157</v>
       </c>
       <c r="W300" t="n">
-        <v>0.0655839741230011</v>
+        <v>0.01823616772890091</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3931760787963867</v>
       </c>
       <c r="V301" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.873674750328064</v>
       </c>
       <c r="W301" t="n">
-        <v>0.0406210832297802</v>
+        <v>0.2308789789676666</v>
       </c>
     </row>
     <row r="302" spans="1:23">
